--- a/project/Productos.xlsx
+++ b/project/Productos.xlsx
@@ -541,10 +541,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,13 +830,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
@@ -847,7 +846,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -870,7 +869,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -893,7 +892,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -916,7 +915,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -939,7 +938,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -962,7 +961,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -985,7 +984,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1008,7 +1007,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1031,7 +1030,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1054,7 +1053,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -1077,7 +1076,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -1100,7 +1099,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -1123,7 +1122,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -1146,7 +1145,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -1169,7 +1168,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -1192,7 +1191,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -1215,7 +1214,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -1238,7 +1237,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -1261,7 +1260,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -1284,7 +1283,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -1307,7 +1306,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -1330,7 +1329,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -1353,7 +1352,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -1376,7 +1375,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -1399,7 +1398,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -1422,7 +1421,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -1445,7 +1444,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -1468,7 +1467,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -1491,7 +1490,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -1514,7 +1513,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -1537,7 +1536,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -1560,7 +1559,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -1583,7 +1582,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -1606,7 +1605,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -1629,7 +1628,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -1652,7 +1651,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -1675,7 +1674,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -1698,7 +1697,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -1721,7 +1720,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -1744,7 +1743,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -1767,7 +1766,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -1790,7 +1789,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -1813,7 +1812,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -1836,7 +1835,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -1859,7 +1858,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -1882,7 +1881,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -1905,7 +1904,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -1928,7 +1927,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -1951,7 +1950,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -1975,7 +1974,7 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -1998,7 +1997,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -2021,7 +2020,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
@@ -2044,7 +2043,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -2067,7 +2066,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -2090,7 +2089,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -2113,7 +2112,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
@@ -2136,7 +2135,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
@@ -2159,7 +2158,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
